--- a/Data_file/วัตถุดิบ1-11.xlsx
+++ b/Data_file/วัตถุดิบ1-11.xlsx
@@ -228,9 +228,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -331,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,10 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -650,18 +653,19 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I4" sqref="I4:I1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1">
@@ -689,7 +693,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -785,8 +789,8 @@
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="13">
-        <v>0</v>
+      <c r="I4" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J4" s="11">
         <v>10003</v>
@@ -817,8 +821,8 @@
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
+      <c r="I5" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J5" s="11">
         <v>10004</v>
@@ -849,8 +853,8 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="13">
-        <v>0</v>
+      <c r="I6" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J6" s="11">
         <v>10005</v>
@@ -881,8 +885,8 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
+      <c r="I7" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J7" s="11">
         <v>10006</v>
@@ -913,8 +917,8 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="13">
-        <v>0</v>
+      <c r="I8" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J8" s="11">
         <v>10007</v>
@@ -1745,8 +1749,8 @@
       <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="I34" s="13">
-        <v>0</v>
+      <c r="I34" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J34" s="11">
         <v>10033</v>
@@ -26193,8 +26197,8 @@
       <c r="H798" s="10">
         <v>1</v>
       </c>
-      <c r="I798" s="13">
-        <v>0</v>
+      <c r="I798" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J798" s="11">
         <v>10797</v>
@@ -28721,8 +28725,8 @@
       <c r="H877" s="10">
         <v>2</v>
       </c>
-      <c r="I877" s="13">
-        <v>0</v>
+      <c r="I877" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J877" s="11">
         <v>10876</v>
